--- a/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
+++ b/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC_IoT_SLR/DataExtraction/Extracted Data/Round 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312EF912-681A-9144-98BD-0D303B1D987C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC59BBB-E492-9448-B525-10B3FD2EDB54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$84</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="341" r:id="rId3"/>
+    <pivotCache cacheId="357" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="481">
   <si>
     <t>Paper ID</t>
   </si>
@@ -275,12 +275,6 @@
     <t>Proceedings of the 19th IEEE International Conference on Information Reuse and Integration for Data Science, IRI 2018</t>
   </si>
   <si>
-    <t>Biswas:2018:1</t>
-  </si>
-  <si>
-    <t>A Scalable Blockchain Framework for Secure Transactions in IoT</t>
-  </si>
-  <si>
     <t>IEEE Internet of Things Journal</t>
   </si>
   <si>
@@ -755,9 +749,6 @@
     <t>Proceedings of the International Conference on Computing, Networking and Communications, ICNC 2018</t>
   </si>
   <si>
-    <t>Xiong:2018:1</t>
-  </si>
-  <si>
     <t>When mobile blockchain meets edge computing</t>
   </si>
   <si>
@@ -854,9 +845,6 @@
     <t>Technical Problem Category</t>
   </si>
   <si>
-    <t>Security: integrity, non-repudiation, authenticity, accountability; Compatibility: interoperability</t>
-  </si>
-  <si>
     <t>Arena:2019:1</t>
   </si>
   <si>
@@ -1482,6 +1470,18 @@
   </si>
   <si>
     <t>Decentralize operations of IoT systems; Build trusted communication channels</t>
+  </si>
+  <si>
+    <t>Decentralize the access control to and from devices; Decentralize the management of trust and reputation</t>
+  </si>
+  <si>
+    <t>Security: confidentiality, integrity; Maintain and conduct reputation assessment of devices and services in IoT systems</t>
+  </si>
+  <si>
+    <t>Decentralize the access control to data and services; Protect at-rest sensor data and event records; Control and incentivize M2M trading; Protect records of resource exchanges</t>
+  </si>
+  <si>
+    <t>Support the ownership and exchange of resources generated by IoT systems; Security: accountability, non-repudiation, integrity, confidentiality</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1723,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Khoi-Nguyen Tran" refreshedDate="44030.896588425923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="124" xr:uid="{D2E454DC-1B3D-A34D-BD1B-7E3CC0A6C355}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I125" sheet="RQ1"/>
+    <worksheetSource ref="A1:I123" sheet="RQ1"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Paper ID" numFmtId="0">
@@ -3289,7 +3289,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="341" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="357" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A133" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4173,11 +4173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I104" sqref="I104"/>
+      <selection pane="topRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4208,16 +4208,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4237,16 +4237,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -4269,13 +4269,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -4295,16 +4295,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -4324,16 +4324,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4353,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4382,16 +4382,16 @@
         <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4411,16 +4411,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -4443,13 +4443,13 @@
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -4472,13 +4472,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4498,16 +4498,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4530,13 +4530,13 @@
         <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -4559,13 +4559,13 @@
         <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4585,16 +4585,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4614,16 +4614,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4643,16 +4643,16 @@
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4675,13 +4675,13 @@
         <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4701,16 +4701,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4733,13 +4733,13 @@
         <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4762,13 +4762,13 @@
         <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -4788,16 +4788,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -4817,16 +4817,16 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -4846,193 +4846,193 @@
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6">
         <v>2018</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="6">
         <v>2018</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>84</v>
+        <v>450</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6">
         <v>2018</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>269</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6">
         <v>2018</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="6">
         <v>2018</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>439</v>
+        <v>259</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>98</v>
       </c>
@@ -5043,344 +5043,344 @@
         <v>2018</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="6">
         <v>2018</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6">
         <v>2018</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="6">
         <v>2018</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="6">
         <v>2018</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="6">
         <v>2018</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" s="6">
         <v>2018</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>47</v>
+        <v>458</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" s="6">
         <v>2018</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="6">
         <v>2018</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>84</v>
+        <v>402</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="6">
         <v>2018</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>134</v>
       </c>
@@ -5391,286 +5391,286 @@
         <v>2018</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>451</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" s="6">
         <v>2018</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>455</v>
+        <v>47</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" s="6">
         <v>2018</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>47</v>
+        <v>442</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="6">
         <v>2018</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" s="6">
         <v>2018</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47" s="6">
         <v>2018</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" s="6">
         <v>2018</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C49" s="6">
         <v>2018</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>469</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="6">
         <v>2018</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C51" s="6">
         <v>2018</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>166</v>
       </c>
@@ -5681,25 +5681,25 @@
         <v>2018</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>168</v>
       </c>
@@ -5710,141 +5710,141 @@
         <v>2018</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" s="6">
         <v>2018</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>172</v>
+        <v>443</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="6">
         <v>2018</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="6">
         <v>2018</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H56" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="I56" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="6">
         <v>2018</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>182</v>
       </c>
@@ -5855,25 +5855,25 @@
         <v>2018</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>448</v>
+        <v>149</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>184</v>
       </c>
@@ -5884,25 +5884,25 @@
         <v>2018</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>186</v>
       </c>
@@ -5913,112 +5913,112 @@
         <v>2018</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C61" s="6">
         <v>2018</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>209</v>
+        <v>25</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="6">
         <v>2018</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>389</v>
+        <v>8</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>198</v>
       </c>
@@ -6029,228 +6029,228 @@
         <v>2018</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C65" s="6">
         <v>2018</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>406</v>
+        <v>204</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C66" s="6">
         <v>2018</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" s="6">
         <v>2018</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C68" s="6">
         <v>2018</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>450</v>
+        <v>47</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" s="6">
         <v>2018</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>47</v>
+        <v>436</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" s="6">
         <v>2018</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>440</v>
+        <v>47</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" s="6">
         <v>2018</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>222</v>
       </c>
@@ -6261,51 +6261,51 @@
         <v>2018</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>406</v>
+        <v>207</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C73" s="6">
         <v>2018</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>209</v>
+        <v>480</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -6319,25 +6319,25 @@
         <v>2018</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>209</v>
+      <c r="F74" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>230</v>
       </c>
@@ -6348,381 +6348,381 @@
         <v>2018</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>413</v>
+        <v>8</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C76" s="6">
         <v>2018</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C77" s="6">
         <v>2018</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>36</v>
+        <v>447</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C78" s="6">
         <v>2018</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C79" s="6">
         <v>2018</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C80" s="6">
         <v>2018</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>91</v>
+        <v>436</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>394</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C81" s="6">
         <v>2018</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C82" s="6">
         <v>2018</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>440</v>
+        <v>13</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C83" s="6">
         <v>2018</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="I83" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="10">
+        <v>2018</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="7" t="s">
+    <row r="85" spans="1:9" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2019</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C85" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="145" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" s="10">
-        <v>2018</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="65" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="12">
-        <v>2019</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="F87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D88" s="7">
         <v>2019</v>
@@ -6731,56 +6731,56 @@
         <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>460</v>
+        <v>17</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D89" s="7">
         <v>2019</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>47</v>
+        <v>449</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>401</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D90" s="7">
         <v>2019</v>
@@ -6789,114 +6789,114 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D91" s="7">
         <v>2019</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D92" s="7">
         <v>2019</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D93" s="7">
         <v>2019</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D94" s="7">
         <v>2019</v>
@@ -6905,27 +6905,27 @@
         <v>12</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>387</v>
+        <v>47</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D95" s="7">
         <v>2019</v>
@@ -6934,85 +6934,85 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D96" s="7">
         <v>2019</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D97" s="7">
         <v>2019</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>209</v>
+        <v>384</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D98" s="7">
         <v>2019</v>
@@ -7021,27 +7021,27 @@
         <v>8</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D99" s="7">
         <v>2019</v>
@@ -7050,27 +7050,27 @@
         <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D100" s="7">
         <v>2019</v>
@@ -7079,27 +7079,27 @@
         <v>8</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D101" s="7">
         <v>2019</v>
@@ -7108,27 +7108,27 @@
         <v>12</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>428</v>
+        <v>47</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D102" s="7">
         <v>2019</v>
@@ -7137,56 +7137,56 @@
         <v>8</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D103" s="7">
         <v>2019</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>47</v>
+        <v>440</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D104" s="7">
         <v>2019</v>
@@ -7195,56 +7195,56 @@
         <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>395</v>
+        <v>265</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>412</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D105" s="7">
         <v>2019</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D106" s="7">
         <v>2019</v>
@@ -7253,27 +7253,27 @@
         <v>8</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>416</v>
+        <v>264</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D107" s="7">
         <v>2019</v>
@@ -7282,27 +7282,27 @@
         <v>12</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D108" s="7">
         <v>2019</v>
@@ -7311,27 +7311,27 @@
         <v>8</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D109" s="7">
         <v>2019</v>
@@ -7340,56 +7340,56 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D110" s="7">
         <v>2019</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>459</v>
+        <v>207</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D111" s="7">
         <v>2019</v>
@@ -7398,85 +7398,85 @@
         <v>12</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>406</v>
+        <v>207</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D112" s="7">
         <v>2019</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D113" s="7">
         <v>2019</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>209</v>
+        <v>437</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D114" s="7">
         <v>2019</v>
@@ -7485,85 +7485,85 @@
         <v>8</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D115" s="7">
         <v>2019</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D116" s="7">
         <v>2019</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D117" s="7">
         <v>2019</v>
@@ -7572,27 +7572,27 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D118" s="7">
         <v>2019</v>
@@ -7601,27 +7601,27 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D119" s="7">
         <v>2019</v>
@@ -7630,27 +7630,27 @@
         <v>12</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D120" s="7">
         <v>2019</v>
@@ -7659,56 +7659,56 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D121" s="7">
         <v>2019</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D122" s="7">
         <v>2019</v>
@@ -7717,27 +7717,27 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D123" s="7">
         <v>2019</v>
@@ -7746,78 +7746,20 @@
         <v>8</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D124" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D125" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:I86" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}"/>
+  <autoFilter ref="F1:I84" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7839,42 +7781,42 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -7884,37 +7826,37 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -7924,17 +7866,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -7944,22 +7886,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -7969,12 +7911,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -7984,17 +7926,17 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -8004,17 +7946,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -8024,37 +7966,37 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -8064,12 +8006,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -8079,17 +8021,17 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -8104,62 +8046,62 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -8169,12 +8111,12 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
@@ -8184,22 +8126,22 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -8209,27 +8151,27 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -8244,37 +8186,37 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -8284,12 +8226,12 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -8299,37 +8241,37 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -8339,12 +8281,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -8354,142 +8296,142 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
+++ b/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/CodeProjects/BC_IoT_SLR/DataExtraction/Extracted Data/Round 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/Projects/BC-IoT_SLR/BC_IoT_SLR/DataExtraction/Extracted Data/Round 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC59BBB-E492-9448-B525-10B3FD2EDB54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113CA335-407C-C94A-9375-1BA5EB36EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="33600" windowHeight="21000" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$83</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="357" r:id="rId3"/>
+    <pivotCache cacheId="62" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="477">
   <si>
     <t>Paper ID</t>
   </si>
@@ -260,9 +262,6 @@
     <t>Proceedings of the IEEE Wireless Communications and Networking Conference, WCNC</t>
   </si>
   <si>
-    <t>Angin:2018:1</t>
-  </si>
-  <si>
     <t>A blockchain-based decentralized security architecture for Iot</t>
   </si>
   <si>
@@ -716,9 +715,6 @@
     <t>Proceedings of the IEEE International Conference on Smart Computing, SMARTCOMP 2018</t>
   </si>
   <si>
-    <t>Security: authenticity, accountability</t>
-  </si>
-  <si>
     <t>Uddin:2018:1</t>
   </si>
   <si>
@@ -1058,15 +1054,9 @@
     <t>Q., Wen and Y., Gao and Z., Chen and D., Wu</t>
   </si>
   <si>
-    <t>Chaudhary:2019:1</t>
-  </si>
-  <si>
     <t>BEST: Blockchain-based secure energy trading in SDN-enabled intelligent transportation system</t>
   </si>
   <si>
-    <t>R., Chaudhary and A., Jindal and G.S., Aujla and S., Aggarwal and N., Kumar and K.-K.R., Choo</t>
-  </si>
-  <si>
     <t>Singh:2019:1</t>
   </si>
   <si>
@@ -1214,9 +1204,6 @@
     <t>Build inter-system communication channels</t>
   </si>
   <si>
-    <t>Build inter-system communication channels;Build intra-system communication channels</t>
-  </si>
-  <si>
     <t>Decentralize the management of identity and certificates; Decentralize the access control to and from devices; Build inter-system communication channels; Operate processes between IoT systems without intermediaries</t>
   </si>
   <si>
@@ -1482,6 +1469,9 @@
   </si>
   <si>
     <t>Support the ownership and exchange of resources generated by IoT systems; Security: accountability, non-repudiation, integrity, confidentiality</t>
+  </si>
+  <si>
+    <t>Protect administrative and security records</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1713,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Khoi-Nguyen Tran" refreshedDate="44030.896588425923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="124" xr:uid="{D2E454DC-1B3D-A34D-BD1B-7E3CC0A6C355}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I123" sheet="RQ1"/>
+    <worksheetSource ref="A1:I121" sheet="RQ1"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Paper ID" numFmtId="0">
@@ -3289,7 +3279,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="357" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A133" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4173,11 +4163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H86" sqref="H86"/>
+      <selection pane="topRight" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4208,16 +4198,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4237,16 +4227,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -4269,13 +4259,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -4295,16 +4285,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -4324,16 +4314,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4353,16 +4343,16 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4382,16 +4372,16 @@
         <v>25</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4411,16 +4401,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
@@ -4443,13 +4433,13 @@
         <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
@@ -4472,13 +4462,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4498,16 +4488,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4530,13 +4520,13 @@
         <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -4559,13 +4549,13 @@
         <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4585,16 +4575,16 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4614,16 +4604,16 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4643,16 +4633,16 @@
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4675,13 +4665,13 @@
         <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4701,16 +4691,16 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -4733,13 +4723,13 @@
         <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
@@ -4762,13 +4752,13 @@
         <v>69</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -4788,987 +4778,987 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="6">
         <v>2018</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="6">
         <v>2018</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="6">
         <v>2018</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="6">
         <v>2018</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="6">
         <v>2018</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" s="6">
         <v>2018</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>207</v>
+        <v>430</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="6">
         <v>2018</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>435</v>
+        <v>257</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="6">
         <v>2018</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6">
         <v>2018</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="6">
         <v>2018</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C32" s="6">
         <v>2018</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6">
         <v>2018</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>36</v>
+        <v>397</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C34" s="6">
         <v>2018</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C35" s="6">
         <v>2018</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C36" s="6">
         <v>2018</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C37" s="6">
         <v>2018</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>453</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="6">
         <v>2018</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C39" s="6">
         <v>2018</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C40" s="6">
         <v>2018</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" s="6">
         <v>2018</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C42" s="6">
         <v>2018</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C43" s="6">
         <v>2018</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>47</v>
+        <v>437</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" s="6">
         <v>2018</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C45" s="6">
         <v>2018</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C46" s="6">
         <v>2018</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C47" s="6">
         <v>2018</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>402</v>
+        <v>155</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" s="6">
         <v>2018</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C49" s="6">
         <v>2018</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="6">
         <v>2018</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" s="6">
         <v>2018</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" s="6">
         <v>2018</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C53" s="6">
         <v>2018</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C54" s="6">
         <v>2018</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C55" s="6">
         <v>2018</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>12</v>
@@ -5777,509 +5767,509 @@
         <v>402</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C56" s="6">
         <v>2018</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57" s="6">
         <v>2018</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" s="6">
         <v>2018</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="6">
         <v>2018</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C60" s="6">
         <v>2018</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C61" s="6">
         <v>2018</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>207</v>
+        <v>25</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C62" s="6">
         <v>2018</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>385</v>
+        <v>8</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C63" s="6">
         <v>2018</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C64" s="6">
         <v>2018</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C65" s="6">
         <v>2018</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C66" s="6">
         <v>2018</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C67" s="6">
         <v>2018</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>446</v>
+        <v>47</v>
       </c>
       <c r="G67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C68" s="6">
         <v>2018</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>47</v>
+        <v>431</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>389</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C69" s="6">
         <v>2018</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C70" s="6">
         <v>2018</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C71" s="6">
         <v>2018</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>403</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C72" s="6">
         <v>2018</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>207</v>
+        <v>475</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>226</v>
       </c>
@@ -6290,25 +6280,25 @@
         <v>2018</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>480</v>
+      <c r="F73" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>228</v>
       </c>
@@ -6319,141 +6309,141 @@
         <v>2018</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>409</v>
+        <v>8</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C75" s="6">
         <v>2018</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C76" s="6">
         <v>2018</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>36</v>
+        <v>442</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C77" s="6">
         <v>2018</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>447</v>
+        <v>88</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C78" s="6">
         <v>2018</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -6464,83 +6454,83 @@
         <v>2018</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C80" s="6">
         <v>2018</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C81" s="6">
         <v>2018</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>252</v>
       </c>
@@ -6551,178 +6541,178 @@
         <v>2018</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>13</v>
+        <v>443</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="10">
         <v>2018</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="145" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="10">
-        <v>2018</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="E83" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="I84" s="11" t="s">
+      <c r="F83" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="I83" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="81" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+    <row r="84" spans="1:9" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D84" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D85" s="12">
+      <c r="C85" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="7">
         <v>2019</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="F85" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D86" s="7">
         <v>2019</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D87" s="7">
         <v>2019</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D88" s="7">
         <v>2019</v>
@@ -6731,27 +6721,27 @@
         <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D89" s="7">
         <v>2019</v>
@@ -6760,56 +6750,56 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D90" s="7">
         <v>2019</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D91" s="7">
         <v>2019</v>
@@ -6818,114 +6808,114 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>455</v>
+        <v>379</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D92" s="7">
         <v>2019</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D93" s="7">
         <v>2019</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>463</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D94" s="7">
         <v>2019</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" s="7">
         <v>2019</v>
@@ -6934,201 +6924,201 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D96" s="7">
         <v>2019</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D97" s="7">
         <v>2019</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D98" s="7">
         <v>2019</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B99" s="7" t="s">
         <v>311</v>
       </c>
+      <c r="B99" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="C99" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D99" s="7">
         <v>2019</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>424</v>
+        <v>206</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B100" s="15" t="s">
         <v>314</v>
       </c>
+      <c r="B100" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="C100" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D100" s="7">
         <v>2019</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D101" s="7">
         <v>2019</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G101" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D102" s="7">
         <v>2019</v>
@@ -7137,27 +7127,27 @@
         <v>8</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>47</v>
+        <v>435</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>266</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D103" s="7">
         <v>2019</v>
@@ -7166,50 +7156,50 @@
         <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>394</v>
+        <v>263</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>407</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D104" s="7">
         <v>2019</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>412</v>
+        <v>263</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>329</v>
@@ -7221,117 +7211,117 @@
         <v>2019</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D106" s="7">
         <v>2019</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D107" s="7">
         <v>2019</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D108" s="7">
         <v>2019</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>455</v>
+        <v>206</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D109" s="7">
         <v>2019</v>
@@ -7340,85 +7330,85 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>402</v>
+        <v>206</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>403</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D110" s="7">
         <v>2019</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D111" s="7">
         <v>2019</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D112" s="7">
         <v>2019</v>
@@ -7427,85 +7417,85 @@
         <v>8</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D113" s="7">
         <v>2019</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D114" s="7">
         <v>2019</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D115" s="7">
         <v>2019</v>
@@ -7514,27 +7504,27 @@
         <v>12</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D116" s="7">
         <v>2019</v>
@@ -7543,27 +7533,27 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D117" s="7">
         <v>2019</v>
@@ -7572,27 +7562,27 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D118" s="7">
         <v>2019</v>
@@ -7601,56 +7591,56 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D119" s="7">
         <v>2019</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D120" s="7">
         <v>2019</v>
@@ -7659,27 +7649,27 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D121" s="7">
         <v>2019</v>
@@ -7688,78 +7678,20 @@
         <v>8</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D122" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D123" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:I84" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}"/>
+  <autoFilter ref="F1:I83" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7781,42 +7713,42 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -7826,37 +7758,37 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -7866,17 +7798,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -7886,22 +7818,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -7911,12 +7843,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -7926,17 +7858,17 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -7946,17 +7878,17 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -7966,37 +7898,37 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -8006,12 +7938,12 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -8021,22 +7953,22 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
@@ -8046,62 +7978,62 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
@@ -8111,37 +8043,37 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -8151,27 +8083,27 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
@@ -8186,37 +8118,37 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -8226,12 +8158,12 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
@@ -8241,37 +8173,37 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
@@ -8281,12 +8213,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
@@ -8296,142 +8228,142 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
+++ b/DataExtraction/Extracted Data/Round 2/RQ1_Round2_0.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trannguyen/Documents/Projects/BC-IoT_SLR/BC_IoT_SLR/DataExtraction/Extracted Data/Round 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113CA335-407C-C94A-9375-1BA5EB36EF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752273D8-668F-5A46-A31A-8C5F7A425E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="33600" windowHeight="21000" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -18,11 +18,11 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RQ1'!$F$1:$I$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="62" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3279,7 +3279,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D70EF13-A283-3A48-9359-ECE0C9FA1031}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A133" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4163,11 +4163,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F108" sqref="F108"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4239,7 +4240,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>60</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>78</v>
       </c>
@@ -4877,7 +4878,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>89</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>97</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>104</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>119</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>131</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>136</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>139</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>142</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>145</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>152</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>156</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>159</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>163</v>
       </c>
@@ -5631,7 +5632,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>165</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>167</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>181</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>183</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>185</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>189</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>200</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>207</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>210</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>213</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>216</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>219</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>221</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>224</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>228</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>231</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>239</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>242</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>250</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>254</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="81" hidden="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>266</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>272</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>275</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>278</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>281</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>287</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>293</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>296</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>302</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>308</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>311</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>314</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>317</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>320</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>299</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>338</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>341</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>344</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>350</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>353</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>376</v>
       </c>
@@ -7691,7 +7692,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:I83" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}"/>
+  <autoFilter ref="F1:I121" xr:uid="{5DB9841F-836E-494C-BC18-0828E2E8D89A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Improve Quality; New Functionality"/>
+        <filter val="New Functionality"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
